--- a/biology/Neurosciences/Classe_ATC_N01/Classe_ATC_N01.xlsx
+++ b/biology/Neurosciences/Classe_ATC_N01/Classe_ATC_N01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N01, dénommée « Anesthésiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N01, dénommée « Anesthésiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
 </t>
         </is>
       </c>
@@ -513,34 +525,209 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N01AA Éthers
-N01AA01 Éther diéthylique
-N01AA02 Vinyl éther
-N01AB hydrocarbures halogénés
-N01AB01 Halothane
+          <t>N01AA Éthers</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N01AA01 Éther diéthylique
+N01AA02 Vinyl éther</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N01A Anesthésiques généraux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N01AB hydrocarbures halogénés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N01AB01 Halothane
 N01AB02 Chloroforme
 N01AB04 Enflurane
 N01AB05 Trichloréthylène
 N01AB06 Isoflurane
 N01AB07 Desflurane
-N01AB08 Sévoflurane
-N01AF Barbituriques seuls
-N01AF01 Méthohexital
+N01AB08 Sévoflurane</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N01A Anesthésiques généraux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N01AF Barbituriques seuls</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N01AF01 Méthohexital
 N01AF02 Hexobarbital
 N01AF03 Thiopental
-QN01AF90 Thiamylal
-N01AG Barbituriques en association avec d'autres médicaments
-N01AG01 Narcobarbital
-N01AH Anesthésiques opiacés
-N01AH01 Fentanyl
+QN01AF90 Thiamylal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N01A Anesthésiques généraux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N01AG Barbituriques en association avec d'autres médicaments</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N01AG01 Narcobarbital</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N01A Anesthésiques généraux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N01AH Anesthésiques opiacés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N01AH01 Fentanyl
 N01AH02 Alfentanil
 N01AH03 Sufentanil
 N01AH04 Phénopéridine
 N01AH05 Aniléridine
 N01AH06 Rémifentanil
-N01AH51 Fentanyl, associations
-N01AX Autres anesthésiques généraux
-N01AX03 Kétamine
+N01AH51 Fentanyl, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N01A Anesthésiques généraux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N01AX Autres anesthésiques généraux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N01AX03 Kétamine
 N01AX04 Propanidide
 N01AX05 Alfaxalone
 N01AX07 Étomidate
@@ -558,42 +745,81 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>N01B Anesthésiques locaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N01BA Esters de l'acide aminobenzoïque
-N01BA01 Métabutéthamine
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N01BA Esters de l'acide aminobenzoïque</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N01BA01 Métabutéthamine
 N01BA02 Procaïne
 N01BA03 Tétracaïne
 N01BA04 Chloroprocaïne
 N01BA05 Benzocaïne
 N01BA52 Procaïne, associations
-N01BA53 Tétracaïne, associations
-N01BB Amides
-N01BB01 Bupivacaïne
+N01BA53 Tétracaïne, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N01B Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N01BB Amides</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N01BB01 Bupivacaïne
 N01BB02 Lidocaïne
 N01BB03 Mépivacaïne
 N01BB04 Prilocaïne
@@ -609,11 +835,79 @@
 N01BB53 Mépivacaïne, associations
 N01BB54 Prilocaïne, associations
 N01BB57 Étidocaïne, associations
-N01BB58 Articaïne, associations
-N01BC Esters de l'acide benzoïque
-N01BC01 Cocaïne
-N01BX Autres anesthésiques locaux
-N01BX01 Chlorure d'éthyle
+N01BB58 Articaïne, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N01B Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N01BC Esters de l'acide benzoïque</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N01BC01 Cocaïne</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N01B Anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N01BX Autres anesthésiques locaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N01BX01 Chlorure d'éthyle
 N01BX02 Dyclonine (en)
 N01BX03 Phénol
 N01BX04 Capsaïcine</t>
